--- a/New Results + graphs .xlsx
+++ b/New Results + graphs .xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nojou\Documents\GitHub\SDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAF6E6D-DA7A-4D0B-B4E9-15FBC9B3B184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29AFD07-CDB9-402C-BAF4-CCCB292C67D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="16608" windowHeight="10536" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="16608" windowHeight="10536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACC graph" sheetId="5" r:id="rId1"/>
     <sheet name="Accuracy" sheetId="1" r:id="rId2"/>
-    <sheet name="precision" sheetId="2" r:id="rId3"/>
-    <sheet name="precision graph" sheetId="6" r:id="rId4"/>
-    <sheet name="Recall" sheetId="3" r:id="rId5"/>
-    <sheet name="recall graph " sheetId="7" r:id="rId6"/>
-    <sheet name="F-measure" sheetId="4" r:id="rId7"/>
-    <sheet name="F graph" sheetId="8" r:id="rId8"/>
+    <sheet name="precision" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="precision graph" sheetId="6" state="hidden" r:id="rId4"/>
+    <sheet name="Recall" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="recall graph " sheetId="7" state="hidden" r:id="rId6"/>
+    <sheet name="F-measure" sheetId="4" state="hidden" r:id="rId7"/>
+    <sheet name="F graph" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="31">
   <si>
     <t>Project</t>
   </si>
@@ -129,6 +129,9 @@
   <si>
     <t>pc5</t>
   </si>
+  <si>
+    <t xml:space="preserve">why NB affected by feature selection ? </t>
+  </si>
 </sst>
 </file>
 
@@ -137,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -228,8 +231,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +266,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +586,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -621,63 +642,12 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -703,10 +673,6 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -744,12 +710,6 @@
     <xf numFmtId="164" fontId="11" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -762,6 +722,66 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -816,6 +836,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Accuracy results for </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-GB"/>
               <a:t>KNN</a:t>
             </a:r>
@@ -887,76 +913,70 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ACC graph'!$A$4:$A$26</c:f>
+              <c:f>'ACC graph'!$A$4:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>ant-1.6</c:v>
+                  <c:v>ant-1.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ant-1.7</c:v>
+                  <c:v>camel-1.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>camel-1.4</c:v>
+                  <c:v>camel-1.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>camel-1.6</c:v>
+                  <c:v>ivy-2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ivy-2.0</c:v>
+                  <c:v>jedit-4.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>jedit-4.2</c:v>
+                  <c:v>jedit-4.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>jedit-4.3</c:v>
+                  <c:v>poi-2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>poi-2.0</c:v>
+                  <c:v>prop-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>prop-6</c:v>
+                  <c:v>xalan-2.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>synapse-1.2</c:v>
+                  <c:v>xerces-1.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>xalan-2.5</c:v>
+                  <c:v>cm1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>xerces-1.2</c:v>
+                  <c:v>jm1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>cm1</c:v>
+                  <c:v>kc1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>jm1</c:v>
+                  <c:v>kc3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>kc1</c:v>
+                  <c:v>mc1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>kc3</c:v>
+                  <c:v>mw1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>mc1</c:v>
+                  <c:v>pc1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>mw1</c:v>
+                  <c:v>pc2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>pc1</c:v>
+                  <c:v>pc3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>pc2</c:v>
+                  <c:v>pc4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>pc3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>pc4</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>pc5</c:v>
                 </c:pt>
               </c:strCache>
@@ -964,77 +984,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ACC graph'!$B$4:$B$26</c:f>
+              <c:f>'ACC graph'!$B$4:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.793103</c:v>
+                  <c:v>0.73983699999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73983699999999997</c:v>
+                  <c:v>0.83333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83333299999999999</c:v>
+                  <c:v>0.77742900000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77742900000000004</c:v>
+                  <c:v>0.83760699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83760699999999999</c:v>
+                  <c:v>0.88524599999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88524599999999998</c:v>
+                  <c:v>0.981595</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.981595</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.875</c:v>
+                  <c:v>0.90140799999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90140799999999999</c:v>
+                  <c:v>0.57358500000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.68235299999999999</c:v>
+                  <c:v>0.87671200000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.57358500000000001</c:v>
+                  <c:v>0.81481499999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.87671200000000005</c:v>
+                  <c:v>0.75126499999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.81481499999999996</c:v>
+                  <c:v>0.70843999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.75126499999999996</c:v>
+                  <c:v>0.75384600000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.70843999999999996</c:v>
+                  <c:v>0.97108099999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.75384600000000002</c:v>
+                  <c:v>0.81333299999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97108099999999997</c:v>
+                  <c:v>0.92132999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.81333299999999997</c:v>
+                  <c:v>0.96341500000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.92132999999999998</c:v>
+                  <c:v>0.84550599999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96341500000000002</c:v>
+                  <c:v>0.84941199999999994</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.84550599999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.84941199999999994</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>0.66902700000000004</c:v>
                 </c:pt>
               </c:numCache>
@@ -1075,76 +1089,70 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ACC graph'!$A$4:$A$26</c:f>
+              <c:f>'ACC graph'!$A$4:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>ant-1.6</c:v>
+                  <c:v>ant-1.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ant-1.7</c:v>
+                  <c:v>camel-1.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>camel-1.4</c:v>
+                  <c:v>camel-1.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>camel-1.6</c:v>
+                  <c:v>ivy-2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ivy-2.0</c:v>
+                  <c:v>jedit-4.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>jedit-4.2</c:v>
+                  <c:v>jedit-4.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>jedit-4.3</c:v>
+                  <c:v>poi-2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>poi-2.0</c:v>
+                  <c:v>prop-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>prop-6</c:v>
+                  <c:v>xalan-2.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>synapse-1.2</c:v>
+                  <c:v>xerces-1.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>xalan-2.5</c:v>
+                  <c:v>cm1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>xerces-1.2</c:v>
+                  <c:v>jm1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>cm1</c:v>
+                  <c:v>kc1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>jm1</c:v>
+                  <c:v>kc3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>kc1</c:v>
+                  <c:v>mc1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>kc3</c:v>
+                  <c:v>mw1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>mc1</c:v>
+                  <c:v>pc1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>mw1</c:v>
+                  <c:v>pc2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>pc1</c:v>
+                  <c:v>pc3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>pc2</c:v>
+                  <c:v>pc4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>pc3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>pc4</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>pc5</c:v>
                 </c:pt>
               </c:strCache>
@@ -1152,77 +1160,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ACC graph'!$C$4:$C$26</c:f>
+              <c:f>'ACC graph'!$C$4:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.83620700000000003</c:v>
+                  <c:v>0.768293</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.768293</c:v>
+                  <c:v>0.85416700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85416700000000001</c:v>
+                  <c:v>0.796238</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.796238</c:v>
+                  <c:v>0.83760699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83760699999999999</c:v>
+                  <c:v>0.90983599999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90983599999999998</c:v>
+                  <c:v>0.981595</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.981595</c:v>
+                  <c:v>0.894231</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.894231</c:v>
+                  <c:v>0.910798</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.910798</c:v>
+                  <c:v>0.62264200000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75294099999999997</c:v>
+                  <c:v>0.87671200000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.62264200000000003</c:v>
+                  <c:v>0.87963000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.87671200000000005</c:v>
+                  <c:v>0.78396299999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87963000000000002</c:v>
+                  <c:v>0.74680299999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.78396299999999997</c:v>
+                  <c:v>0.78461499999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.74680299999999999</c:v>
+                  <c:v>0.97412500000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.78461499999999995</c:v>
+                  <c:v>0.83714299999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97412500000000002</c:v>
+                  <c:v>0.92562199999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.83714299999999997</c:v>
+                  <c:v>0.96748000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.92562199999999994</c:v>
+                  <c:v>0.856742</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96748000000000001</c:v>
+                  <c:v>0.89176500000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.856742</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.89176500000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>0.73628300000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -1263,76 +1265,70 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ACC graph'!$A$4:$A$26</c:f>
+              <c:f>'ACC graph'!$A$4:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>ant-1.6</c:v>
+                  <c:v>ant-1.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ant-1.7</c:v>
+                  <c:v>camel-1.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>camel-1.4</c:v>
+                  <c:v>camel-1.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>camel-1.6</c:v>
+                  <c:v>ivy-2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ivy-2.0</c:v>
+                  <c:v>jedit-4.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>jedit-4.2</c:v>
+                  <c:v>jedit-4.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>jedit-4.3</c:v>
+                  <c:v>poi-2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>poi-2.0</c:v>
+                  <c:v>prop-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>prop-6</c:v>
+                  <c:v>xalan-2.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>synapse-1.2</c:v>
+                  <c:v>xerces-1.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>xalan-2.5</c:v>
+                  <c:v>cm1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>xerces-1.2</c:v>
+                  <c:v>jm1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>cm1</c:v>
+                  <c:v>kc1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>jm1</c:v>
+                  <c:v>kc3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>kc1</c:v>
+                  <c:v>mc1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>kc3</c:v>
+                  <c:v>mw1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>mc1</c:v>
+                  <c:v>pc1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>mw1</c:v>
+                  <c:v>pc2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>pc1</c:v>
+                  <c:v>pc3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>pc2</c:v>
+                  <c:v>pc4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>pc3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>pc4</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>pc5</c:v>
                 </c:pt>
               </c:strCache>
@@ -1340,77 +1336,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ACC graph'!$D$4:$D$26</c:f>
+              <c:f>'ACC graph'!$D$4:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.83620700000000003</c:v>
+                  <c:v>0.77235799999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77235799999999999</c:v>
+                  <c:v>0.85763900000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85763900000000004</c:v>
+                  <c:v>0.799373</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.799373</c:v>
+                  <c:v>0.83760699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83760699999999999</c:v>
+                  <c:v>0.90983599999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90983599999999998</c:v>
+                  <c:v>0.981595</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.981595</c:v>
+                  <c:v>0.90384600000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90384600000000004</c:v>
+                  <c:v>0.910798</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.910798</c:v>
+                  <c:v>0.641509</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.764706</c:v>
+                  <c:v>0.87671200000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.641509</c:v>
+                  <c:v>0.89814799999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.87671200000000005</c:v>
+                  <c:v>0.78785499999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.89814799999999995</c:v>
+                  <c:v>0.74424599999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.78785499999999997</c:v>
+                  <c:v>0.81538500000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.74424599999999996</c:v>
+                  <c:v>0.97869099999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.81538500000000003</c:v>
+                  <c:v>0.85714299999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97869099999999998</c:v>
+                  <c:v>0.93562199999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.85714299999999999</c:v>
+                  <c:v>0.96748000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.93562199999999995</c:v>
+                  <c:v>0.87359600000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96748000000000001</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.87359600000000004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>0.75044200000000005</c:v>
                 </c:pt>
               </c:numCache>
@@ -4094,6 +4084,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Acccuracy result for NB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4135,7 +4150,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ACC graph'!$B$31:$B$32</c:f>
+              <c:f>'ACC graph'!$B$29:$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4159,76 +4174,70 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ACC graph'!$A$33:$A$55</c:f>
+              <c:f>'ACC graph'!$A$31:$A$51</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>ant-1.6</c:v>
+                  <c:v>ant-1.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ant-1.7</c:v>
+                  <c:v>camel-1.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>camel-1.4</c:v>
+                  <c:v>camel-1.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>camel-1.6</c:v>
+                  <c:v>ivy-2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ivy-2.0</c:v>
+                  <c:v>jedit-4.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>jedit-4.2</c:v>
+                  <c:v>jedit-4.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>jedit-4.3</c:v>
+                  <c:v>poi-2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>poi-2.0</c:v>
+                  <c:v>prop-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>prop-6</c:v>
+                  <c:v>xalan-2.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>synapse-1.2</c:v>
+                  <c:v>xerces-1.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>xalan-2.5</c:v>
+                  <c:v>cm1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>xerces-1.2</c:v>
+                  <c:v>jm1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>cm1</c:v>
+                  <c:v>kc1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>jm1</c:v>
+                  <c:v>kc3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>kc1</c:v>
+                  <c:v>mc1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>kc3</c:v>
+                  <c:v>mw1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>mc1</c:v>
+                  <c:v>pc1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>mw1</c:v>
+                  <c:v>pc2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>pc1</c:v>
+                  <c:v>pc3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>pc2</c:v>
+                  <c:v>pc4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>pc3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>pc4</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>pc5</c:v>
                 </c:pt>
               </c:strCache>
@@ -4236,77 +4245,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ACC graph'!$B$33:$B$55</c:f>
+              <c:f>'ACC graph'!$B$31:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.478632</c:v>
+                  <c:v>0.78448300000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78448300000000004</c:v>
+                  <c:v>0.42352899999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42352899999999999</c:v>
+                  <c:v>0.54878000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54878000000000005</c:v>
+                  <c:v>0.47924499999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47924499999999998</c:v>
+                  <c:v>0.66438399999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66438399999999997</c:v>
+                  <c:v>0.65830699999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65830699999999998</c:v>
+                  <c:v>0.68055600000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.68055600000000005</c:v>
+                  <c:v>0.309859</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.309859</c:v>
+                  <c:v>0.57377</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92637999999999998</c:v>
+                  <c:v>0.88461500000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.57377</c:v>
+                  <c:v>0.76851899999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.88461500000000004</c:v>
+                  <c:v>0.79174800000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.76851899999999995</c:v>
+                  <c:v>0.73145800000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79174800000000001</c:v>
+                  <c:v>0.73846199999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.73145800000000005</c:v>
+                  <c:v>0.960426</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.73846199999999995</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.960426</c:v>
+                  <c:v>0.87982800000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.75</c:v>
+                  <c:v>0.45122000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.87982800000000005</c:v>
+                  <c:v>0.35955100000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.45122000000000001</c:v>
+                  <c:v>0.87058800000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.35955100000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.87058800000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>0.72212399999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -4323,7 +4326,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ACC graph'!$C$31:$C$32</c:f>
+              <c:f>'ACC graph'!$C$29:$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4347,76 +4350,70 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ACC graph'!$A$33:$A$55</c:f>
+              <c:f>'ACC graph'!$A$31:$A$51</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>ant-1.6</c:v>
+                  <c:v>ant-1.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ant-1.7</c:v>
+                  <c:v>camel-1.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>camel-1.4</c:v>
+                  <c:v>camel-1.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>camel-1.6</c:v>
+                  <c:v>ivy-2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ivy-2.0</c:v>
+                  <c:v>jedit-4.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>jedit-4.2</c:v>
+                  <c:v>jedit-4.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>jedit-4.3</c:v>
+                  <c:v>poi-2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>poi-2.0</c:v>
+                  <c:v>prop-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>prop-6</c:v>
+                  <c:v>xalan-2.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>synapse-1.2</c:v>
+                  <c:v>xerces-1.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>xalan-2.5</c:v>
+                  <c:v>cm1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>xerces-1.2</c:v>
+                  <c:v>jm1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>cm1</c:v>
+                  <c:v>kc1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>jm1</c:v>
+                  <c:v>kc3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>kc1</c:v>
+                  <c:v>mc1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>kc3</c:v>
+                  <c:v>mw1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>mc1</c:v>
+                  <c:v>pc1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>mw1</c:v>
+                  <c:v>pc2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>pc1</c:v>
+                  <c:v>pc3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>pc2</c:v>
+                  <c:v>pc4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>pc3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>pc4</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>pc5</c:v>
                 </c:pt>
               </c:strCache>
@@ -4424,77 +4421,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ACC graph'!$C$33:$C$55</c:f>
+              <c:f>'ACC graph'!$C$31:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.81896599999999997</c:v>
+                  <c:v>0.74796700000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74796700000000005</c:v>
+                  <c:v>0.84375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84375</c:v>
+                  <c:v>0.74921599999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74921599999999999</c:v>
+                  <c:v>0.83760699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83760699999999999</c:v>
+                  <c:v>0.90163899999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90163899999999997</c:v>
+                  <c:v>0.98773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98773</c:v>
+                  <c:v>0.913462</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.913462</c:v>
+                  <c:v>0.887324</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.887324</c:v>
+                  <c:v>0.56226399999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70588200000000001</c:v>
+                  <c:v>0.81506800000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.56226399999999999</c:v>
+                  <c:v>0.78703699999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.81506800000000001</c:v>
+                  <c:v>0.79564000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.78703699999999999</c:v>
+                  <c:v>0.74680299999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79564000000000001</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.74680299999999999</c:v>
+                  <c:v>0.97412500000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.8</c:v>
+                  <c:v>0.83333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97412500000000002</c:v>
+                  <c:v>0.90987099999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.83333299999999999</c:v>
+                  <c:v>0.91869900000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.90987099999999999</c:v>
+                  <c:v>0.83707900000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.91869900000000004</c:v>
+                  <c:v>0.89882399999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.83707900000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.89882399999999996</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>0.73805299999999996</c:v>
                 </c:pt>
               </c:numCache>
@@ -4511,7 +4502,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ACC graph'!$D$31:$D$32</c:f>
+              <c:f>'ACC graph'!$D$29:$D$30</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4535,76 +4526,70 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ACC graph'!$A$33:$A$55</c:f>
+              <c:f>'ACC graph'!$A$31:$A$51</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>ant-1.6</c:v>
+                  <c:v>ant-1.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ant-1.7</c:v>
+                  <c:v>camel-1.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>camel-1.4</c:v>
+                  <c:v>camel-1.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>camel-1.6</c:v>
+                  <c:v>ivy-2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ivy-2.0</c:v>
+                  <c:v>jedit-4.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>jedit-4.2</c:v>
+                  <c:v>jedit-4.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>jedit-4.3</c:v>
+                  <c:v>poi-2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>poi-2.0</c:v>
+                  <c:v>prop-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>prop-6</c:v>
+                  <c:v>xalan-2.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>synapse-1.2</c:v>
+                  <c:v>xerces-1.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>xalan-2.5</c:v>
+                  <c:v>cm1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>xerces-1.2</c:v>
+                  <c:v>jm1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>cm1</c:v>
+                  <c:v>kc1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>jm1</c:v>
+                  <c:v>kc3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>kc1</c:v>
+                  <c:v>mc1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>kc3</c:v>
+                  <c:v>mw1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>mc1</c:v>
+                  <c:v>pc1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>mw1</c:v>
+                  <c:v>pc2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>pc1</c:v>
+                  <c:v>pc3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>pc2</c:v>
+                  <c:v>pc4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>pc3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>pc4</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>pc5</c:v>
                 </c:pt>
               </c:strCache>
@@ -4612,77 +4597,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ACC graph'!$D$33:$D$55</c:f>
+              <c:f>'ACC graph'!$D$31:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.82758600000000004</c:v>
+                  <c:v>0.77642299999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77642299999999997</c:v>
+                  <c:v>0.84375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84375</c:v>
+                  <c:v>0.78683400000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78683400000000003</c:v>
+                  <c:v>0.85470100000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85470100000000004</c:v>
+                  <c:v>0.90983599999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90983599999999998</c:v>
+                  <c:v>0.98773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98773</c:v>
+                  <c:v>0.913462</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.913462</c:v>
+                  <c:v>0.90610299999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90610299999999999</c:v>
+                  <c:v>0.57735800000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.74117599999999995</c:v>
+                  <c:v>0.86301399999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.57735800000000004</c:v>
+                  <c:v>0.81481499999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.86301399999999995</c:v>
+                  <c:v>0.800701</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.81481499999999996</c:v>
+                  <c:v>0.75703299999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.800701</c:v>
+                  <c:v>0.78461499999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.75703299999999996</c:v>
+                  <c:v>0.97564700000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.78461499999999995</c:v>
+                  <c:v>0.84523800000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97564700000000004</c:v>
+                  <c:v>0.91416299999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.84523800000000004</c:v>
+                  <c:v>0.96748000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.91416299999999995</c:v>
+                  <c:v>0.86516899999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96748000000000001</c:v>
+                  <c:v>0.90823500000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.86516899999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.90823500000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>0.74159299999999995</c:v>
                 </c:pt>
               </c:numCache>
@@ -4912,6 +4891,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Accuracy results</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> for SVM RBF</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4953,7 +4962,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ACC graph'!$B$60:$B$61</c:f>
+              <c:f>'ACC graph'!$B$56:$B$57</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4977,76 +4986,70 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ACC graph'!$A$62:$A$84</c:f>
+              <c:f>'ACC graph'!$A$58:$A$78</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>ant-1.6</c:v>
+                  <c:v>ant-1.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ant-1.7</c:v>
+                  <c:v>camel-1.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>camel-1.4</c:v>
+                  <c:v>camel-1.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>camel-1.6</c:v>
+                  <c:v>ivy-2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ivy-2.0</c:v>
+                  <c:v>jedit-4.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>jedit-4.2</c:v>
+                  <c:v>jedit-4.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>jedit-4.3</c:v>
+                  <c:v>poi-2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>poi-2.0</c:v>
+                  <c:v>prop-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>prop-6</c:v>
+                  <c:v>xalan-2.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>synapse-1.2</c:v>
+                  <c:v>xerces-1.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>xalan-2.5</c:v>
+                  <c:v>cm1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>xerces-1.2</c:v>
+                  <c:v>jm1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>cm1</c:v>
+                  <c:v>kc1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>jm1</c:v>
+                  <c:v>kc3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>kc1</c:v>
+                  <c:v>mc1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>kc3</c:v>
+                  <c:v>mw1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>mc1</c:v>
+                  <c:v>pc1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>mw1</c:v>
+                  <c:v>pc2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>pc1</c:v>
+                  <c:v>pc3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>pc2</c:v>
+                  <c:v>pc4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>pc3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>pc4</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>pc5</c:v>
                 </c:pt>
               </c:strCache>
@@ -5054,77 +5057,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ACC graph'!$B$62:$B$84</c:f>
+              <c:f>'ACC graph'!$B$58:$B$78</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.77586200000000005</c:v>
+                  <c:v>0.75203299999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75203299999999995</c:v>
+                  <c:v>0.84375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84375</c:v>
+                  <c:v>0.78683400000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78683400000000003</c:v>
+                  <c:v>0.83760699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83760699999999999</c:v>
+                  <c:v>0.88524599999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88524599999999998</c:v>
+                  <c:v>0.981595</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.981595</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.875</c:v>
+                  <c:v>0.89671400000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.89671400000000001</c:v>
+                  <c:v>0.54717000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.68235299999999999</c:v>
+                  <c:v>0.86301399999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.54717000000000005</c:v>
+                  <c:v>0.87036999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.86301399999999995</c:v>
+                  <c:v>0.79641899999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87036999999999998</c:v>
+                  <c:v>0.73401499999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79641899999999999</c:v>
+                  <c:v>0.78461499999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.73401499999999997</c:v>
+                  <c:v>0.97412500000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.78461499999999995</c:v>
+                  <c:v>0.83333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97412500000000002</c:v>
+                  <c:v>0.93132999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.83333299999999999</c:v>
+                  <c:v>0.96341500000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.93132999999999999</c:v>
+                  <c:v>0.84550599999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96341500000000002</c:v>
+                  <c:v>0.87529400000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.84550599999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.87529400000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>0.718584</c:v>
                 </c:pt>
               </c:numCache>
@@ -5141,7 +5138,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ACC graph'!$C$60:$C$61</c:f>
+              <c:f>'ACC graph'!$C$56:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5165,76 +5162,70 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ACC graph'!$A$62:$A$84</c:f>
+              <c:f>'ACC graph'!$A$58:$A$78</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>ant-1.6</c:v>
+                  <c:v>ant-1.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ant-1.7</c:v>
+                  <c:v>camel-1.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>camel-1.4</c:v>
+                  <c:v>camel-1.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>camel-1.6</c:v>
+                  <c:v>ivy-2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ivy-2.0</c:v>
+                  <c:v>jedit-4.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>jedit-4.2</c:v>
+                  <c:v>jedit-4.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>jedit-4.3</c:v>
+                  <c:v>poi-2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>poi-2.0</c:v>
+                  <c:v>prop-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>prop-6</c:v>
+                  <c:v>xalan-2.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>synapse-1.2</c:v>
+                  <c:v>xerces-1.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>xalan-2.5</c:v>
+                  <c:v>cm1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>xerces-1.2</c:v>
+                  <c:v>jm1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>cm1</c:v>
+                  <c:v>kc1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>jm1</c:v>
+                  <c:v>kc3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>kc1</c:v>
+                  <c:v>mc1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>kc3</c:v>
+                  <c:v>mw1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>mc1</c:v>
+                  <c:v>pc1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>mw1</c:v>
+                  <c:v>pc2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>pc1</c:v>
+                  <c:v>pc3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>pc2</c:v>
+                  <c:v>pc4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>pc3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>pc4</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>pc5</c:v>
                 </c:pt>
               </c:strCache>
@@ -5242,77 +5233,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ACC graph'!$C$62:$C$84</c:f>
+              <c:f>'ACC graph'!$C$58:$C$78</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.81034499999999998</c:v>
+                  <c:v>0.75203299999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75203299999999995</c:v>
+                  <c:v>0.84375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84375</c:v>
+                  <c:v>0.78683400000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78683400000000003</c:v>
+                  <c:v>0.83760699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83760699999999999</c:v>
+                  <c:v>0.89344299999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89344299999999999</c:v>
+                  <c:v>0.981595</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.981595</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.875</c:v>
+                  <c:v>0.90140799999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90140799999999999</c:v>
+                  <c:v>0.58113199999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75294099999999997</c:v>
+                  <c:v>0.86986300000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.58113199999999998</c:v>
+                  <c:v>0.87036999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.86986300000000005</c:v>
+                  <c:v>0.79797600000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87036999999999998</c:v>
+                  <c:v>0.72634299999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79797600000000002</c:v>
+                  <c:v>0.78461499999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.72634299999999996</c:v>
+                  <c:v>0.97716899999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.78461499999999995</c:v>
+                  <c:v>0.83333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97716899999999995</c:v>
+                  <c:v>0.93562199999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.83333299999999999</c:v>
+                  <c:v>0.96341500000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.93562199999999995</c:v>
+                  <c:v>0.84831500000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96341500000000002</c:v>
+                  <c:v>0.88941199999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.84831500000000004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.88941199999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>0.73451299999999997</c:v>
                 </c:pt>
               </c:numCache>
@@ -5329,7 +5314,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ACC graph'!$D$60:$D$61</c:f>
+              <c:f>'ACC graph'!$D$56:$D$57</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5353,76 +5338,70 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ACC graph'!$A$62:$A$84</c:f>
+              <c:f>'ACC graph'!$A$58:$A$78</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>ant-1.6</c:v>
+                  <c:v>ant-1.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ant-1.7</c:v>
+                  <c:v>camel-1.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>camel-1.4</c:v>
+                  <c:v>camel-1.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>camel-1.6</c:v>
+                  <c:v>ivy-2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ivy-2.0</c:v>
+                  <c:v>jedit-4.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>jedit-4.2</c:v>
+                  <c:v>jedit-4.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>jedit-4.3</c:v>
+                  <c:v>poi-2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>poi-2.0</c:v>
+                  <c:v>prop-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>prop-6</c:v>
+                  <c:v>xalan-2.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>synapse-1.2</c:v>
+                  <c:v>xerces-1.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>xalan-2.5</c:v>
+                  <c:v>cm1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>xerces-1.2</c:v>
+                  <c:v>jm1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>cm1</c:v>
+                  <c:v>kc1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>jm1</c:v>
+                  <c:v>kc3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>kc1</c:v>
+                  <c:v>mc1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>kc3</c:v>
+                  <c:v>mw1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>mc1</c:v>
+                  <c:v>pc1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>mw1</c:v>
+                  <c:v>pc2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>pc1</c:v>
+                  <c:v>pc3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>pc2</c:v>
+                  <c:v>pc4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>pc3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>pc4</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>pc5</c:v>
                 </c:pt>
               </c:strCache>
@@ -5430,77 +5409,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ACC graph'!$D$62:$D$84</c:f>
+              <c:f>'ACC graph'!$D$58:$D$78</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.76724099999999995</c:v>
+                  <c:v>0.75609800000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75609800000000005</c:v>
+                  <c:v>0.85416700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85416700000000001</c:v>
+                  <c:v>0.78996900000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78996900000000003</c:v>
+                  <c:v>0.84615399999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84615399999999996</c:v>
+                  <c:v>0.89344299999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89344299999999999</c:v>
+                  <c:v>0.981595</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.981595</c:v>
+                  <c:v>0.88461500000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88461500000000004</c:v>
+                  <c:v>0.910798</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.910798</c:v>
+                  <c:v>0.62264200000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.81176499999999996</c:v>
+                  <c:v>0.86986300000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.62264200000000003</c:v>
+                  <c:v>0.87036999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.86986300000000005</c:v>
+                  <c:v>0.79875399999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87036999999999998</c:v>
+                  <c:v>0.72122799999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79875399999999996</c:v>
+                  <c:v>0.78461499999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.72122799999999998</c:v>
+                  <c:v>0.97716899999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.78461499999999995</c:v>
+                  <c:v>0.83333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97716899999999995</c:v>
+                  <c:v>0.93562199999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.83333299999999999</c:v>
+                  <c:v>0.96341500000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.93562199999999995</c:v>
+                  <c:v>0.84831500000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96341500000000002</c:v>
+                  <c:v>0.87764699999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.84831500000000004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.87764699999999995</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>0.73451299999999997</c:v>
                 </c:pt>
               </c:numCache>
@@ -17791,1047 +17764,966 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841E217A-B52C-43AF-8ABB-DD23FB2E0D77}">
-  <dimension ref="A2:D84"/>
+  <dimension ref="A2:AA78"/>
   <sheetViews>
-    <sheetView topLeftCell="C40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y64" sqref="Y64"/>
+    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="40" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="40"/>
+    <col min="1" max="1" width="14.88671875" style="29" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="19.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="55"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
     </row>
     <row r="3" spans="1:4" ht="16.8">
-      <c r="A3" s="44"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6">
-      <c r="A4" s="42" t="s">
-        <v>7</v>
+      <c r="A4" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="21">
-        <v>0.793103</v>
+        <v>0.73983699999999997</v>
       </c>
       <c r="C4" s="21">
-        <v>0.83620700000000003</v>
+        <v>0.768293</v>
       </c>
       <c r="D4" s="22">
-        <v>0.83620700000000003</v>
+        <v>0.77235799999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.85416700000000001</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0.85763900000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6">
+      <c r="A6" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="21">
+        <v>0.77742900000000004</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.796238</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.799373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6">
+      <c r="A7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.83760699999999999</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.83760699999999999</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.83760699999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6">
+      <c r="A8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="21">
+        <v>0.88524599999999998</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.90983599999999998</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0.90983599999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6">
+      <c r="A9" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.981595</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.981595</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.981595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6">
+      <c r="A10" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="21">
+        <v>0.875</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.894231</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0.90384600000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6">
+      <c r="A11" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0.90140799999999999</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.910798</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0.910798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6">
+      <c r="A12" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="21">
+        <v>0.57358500000000001</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0.62264200000000003</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.641509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6">
+      <c r="A13" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="24">
+        <v>0.87671200000000005</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0.87671200000000005</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0.87671200000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6">
+      <c r="A14" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0.81481499999999996</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0.87963000000000002</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0.89814799999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6">
+      <c r="A15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="18">
+        <v>0.75126499999999996</v>
+      </c>
+      <c r="C15" s="21">
+        <v>0.78396299999999997</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0.78785499999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6">
+      <c r="A16" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="18">
+        <v>0.70843999999999996</v>
+      </c>
+      <c r="C16" s="21">
+        <v>0.74680299999999999</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0.74424599999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6">
+      <c r="A17" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="18">
+        <v>0.75384600000000002</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0.78461499999999995</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0.81538500000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6">
+      <c r="A18" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="18">
+        <v>0.97108099999999997</v>
+      </c>
+      <c r="C18" s="21">
+        <v>0.97412500000000002</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0.97869099999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6">
+      <c r="A19" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="18">
+        <v>0.81333299999999997</v>
+      </c>
+      <c r="C19" s="21">
+        <v>0.83714299999999997</v>
+      </c>
+      <c r="D19" s="22">
+        <v>0.85714299999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6">
+      <c r="A20" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="18">
+        <v>0.92132999999999998</v>
+      </c>
+      <c r="C20" s="21">
+        <v>0.92562199999999994</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0.93562199999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6">
+      <c r="A21" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="18">
+        <v>0.96341500000000002</v>
+      </c>
+      <c r="C21" s="21">
+        <v>0.96748000000000001</v>
+      </c>
+      <c r="D21" s="22">
+        <v>0.96748000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6">
+      <c r="A22" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="18">
+        <v>0.84550599999999998</v>
+      </c>
+      <c r="C22" s="21">
+        <v>0.856742</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0.87359600000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6">
+      <c r="A23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="18">
+        <v>0.84941199999999994</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0.89176500000000003</v>
+      </c>
+      <c r="D23" s="22">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6">
+      <c r="A24" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="19">
+        <v>0.66902700000000004</v>
+      </c>
+      <c r="C24" s="24">
+        <v>0.73628300000000002</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0.75044200000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="19.2">
+      <c r="A29" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="72"/>
+    </row>
+    <row r="30" spans="1:4" ht="16.8">
+      <c r="A30" s="69"/>
+      <c r="B30" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.6">
+      <c r="A31" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21">
-        <v>0.73983699999999997</v>
-      </c>
-      <c r="C5" s="21">
-        <v>0.768293</v>
-      </c>
-      <c r="D5" s="22">
-        <v>0.77235799999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.6">
-      <c r="A6" s="42" t="s">
+      <c r="B31" s="53">
+        <v>0.78448300000000004</v>
+      </c>
+      <c r="C31" s="37">
+        <v>0.74796700000000005</v>
+      </c>
+      <c r="D31" s="54">
+        <v>0.77642299999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.6">
+      <c r="A32" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B32" s="36">
+        <v>0.42352899999999999</v>
+      </c>
+      <c r="C32" s="37">
+        <v>0.84375</v>
+      </c>
+      <c r="D32" s="38">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="15.6">
+      <c r="A33" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="36">
+        <v>0.54878000000000005</v>
+      </c>
+      <c r="C33" s="37">
+        <v>0.74921599999999999</v>
+      </c>
+      <c r="D33" s="38">
+        <v>0.78683400000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="15.6">
+      <c r="A34" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="36">
+        <v>0.47924499999999998</v>
+      </c>
+      <c r="C34" s="37">
+        <v>0.83760699999999999</v>
+      </c>
+      <c r="D34" s="38">
+        <v>0.85470100000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="15.6">
+      <c r="A35" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="36">
+        <v>0.66438399999999997</v>
+      </c>
+      <c r="C35" s="37">
+        <v>0.90163899999999997</v>
+      </c>
+      <c r="D35" s="38">
+        <v>0.90983599999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="15.6">
+      <c r="A36" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="36">
+        <v>0.65830699999999998</v>
+      </c>
+      <c r="C36" s="37">
+        <v>0.98773</v>
+      </c>
+      <c r="D36" s="38">
+        <v>0.98773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="15.6">
+      <c r="A37" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="36">
+        <v>0.68055600000000005</v>
+      </c>
+      <c r="C37" s="37">
+        <v>0.913462</v>
+      </c>
+      <c r="D37" s="38">
+        <v>0.913462</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="15.6">
+      <c r="A38" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="36">
+        <v>0.309859</v>
+      </c>
+      <c r="C38" s="37">
+        <v>0.887324</v>
+      </c>
+      <c r="D38" s="38">
+        <v>0.90610299999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="15.6">
+      <c r="A39" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="36">
+        <v>0.57377</v>
+      </c>
+      <c r="C39" s="37">
+        <v>0.56226399999999999</v>
+      </c>
+      <c r="D39" s="38">
+        <v>0.57735800000000004</v>
+      </c>
+      <c r="AA39" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="15.6">
+      <c r="A40" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="39">
+        <v>0.88461500000000004</v>
+      </c>
+      <c r="C40" s="51">
+        <v>0.81506800000000001</v>
+      </c>
+      <c r="D40" s="52">
+        <v>0.86301399999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="15.6">
+      <c r="A41" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="42">
+        <v>0.76851899999999995</v>
+      </c>
+      <c r="C41" s="37">
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="D41" s="38">
+        <v>0.81481499999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="15.6">
+      <c r="A42" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="42">
+        <v>0.79174800000000001</v>
+      </c>
+      <c r="C42" s="37">
+        <v>0.79564000000000001</v>
+      </c>
+      <c r="D42" s="38">
+        <v>0.800701</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="15.6">
+      <c r="A43" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="42">
+        <v>0.73145800000000005</v>
+      </c>
+      <c r="C43" s="37">
+        <v>0.74680299999999999</v>
+      </c>
+      <c r="D43" s="38">
+        <v>0.75703299999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="15.6">
+      <c r="A44" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="42">
+        <v>0.73846199999999995</v>
+      </c>
+      <c r="C44" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="D44" s="38">
+        <v>0.78461499999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="15.6">
+      <c r="A45" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="42">
+        <v>0.960426</v>
+      </c>
+      <c r="C45" s="37">
+        <v>0.97412500000000002</v>
+      </c>
+      <c r="D45" s="38">
+        <v>0.97564700000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="15.6">
+      <c r="A46" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="C46" s="37">
         <v>0.83333299999999999</v>
       </c>
-      <c r="C6" s="21">
+      <c r="D46" s="38">
+        <v>0.84523800000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="15.6">
+      <c r="A47" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="42">
+        <v>0.87982800000000005</v>
+      </c>
+      <c r="C47" s="37">
+        <v>0.90987099999999999</v>
+      </c>
+      <c r="D47" s="38">
+        <v>0.91416299999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" ht="15.6">
+      <c r="A48" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="42">
+        <v>0.45122000000000001</v>
+      </c>
+      <c r="C48" s="37">
+        <v>0.91869900000000004</v>
+      </c>
+      <c r="D48" s="55">
+        <v>0.96748000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.6">
+      <c r="A49" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="42">
+        <v>0.35955100000000001</v>
+      </c>
+      <c r="C49" s="37">
+        <v>0.83707900000000002</v>
+      </c>
+      <c r="D49" s="55">
+        <v>0.86516899999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.6">
+      <c r="A50" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="42">
+        <v>0.87058800000000003</v>
+      </c>
+      <c r="C50" s="37">
+        <v>0.89882399999999996</v>
+      </c>
+      <c r="D50" s="55">
+        <v>0.90823500000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.6">
+      <c r="A51" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="43">
+        <v>0.72212399999999999</v>
+      </c>
+      <c r="C51" s="40">
+        <v>0.73805299999999996</v>
+      </c>
+      <c r="D51" s="52">
+        <v>0.74159299999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="19.2">
+      <c r="A56" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="74"/>
+      <c r="D56" s="75"/>
+    </row>
+    <row r="57" spans="1:4" ht="16.8">
+      <c r="A57" s="65"/>
+      <c r="B57" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.6">
+      <c r="A58" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="45">
+        <v>0.75203299999999995</v>
+      </c>
+      <c r="C58" s="45">
+        <v>0.75203299999999995</v>
+      </c>
+      <c r="D58" s="45">
+        <v>0.75609800000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.6">
+      <c r="A59" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="45">
+        <v>0.84375</v>
+      </c>
+      <c r="C59" s="45">
+        <v>0.84375</v>
+      </c>
+      <c r="D59" s="45">
         <v>0.85416700000000001</v>
       </c>
-      <c r="D6" s="22">
-        <v>0.85763900000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.6">
-      <c r="A7" s="42" t="s">
+    </row>
+    <row r="60" spans="1:4" ht="15.6">
+      <c r="A60" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="21">
-        <v>0.77742900000000004</v>
-      </c>
-      <c r="C7" s="21">
-        <v>0.796238</v>
-      </c>
-      <c r="D7" s="22">
-        <v>0.799373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.6">
-      <c r="A8" s="42" t="s">
+      <c r="B60" s="45">
+        <v>0.78683400000000003</v>
+      </c>
+      <c r="C60" s="45">
+        <v>0.78683400000000003</v>
+      </c>
+      <c r="D60" s="45">
+        <v>0.78996900000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.6">
+      <c r="A61" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B61" s="45">
         <v>0.83760699999999999</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C61" s="45">
         <v>0.83760699999999999</v>
       </c>
-      <c r="D8" s="22">
-        <v>0.83760699999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.6">
-      <c r="A9" s="42" t="s">
+      <c r="D61" s="45">
+        <v>0.84615399999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.6">
+      <c r="A62" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B62" s="45">
         <v>0.88524599999999998</v>
       </c>
-      <c r="C9" s="21">
-        <v>0.90983599999999998</v>
-      </c>
-      <c r="D9" s="22">
-        <v>0.90983599999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.6">
-      <c r="A10" s="42" t="s">
+      <c r="C62" s="45">
+        <v>0.89344299999999999</v>
+      </c>
+      <c r="D62" s="45">
+        <v>0.89344299999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.6">
+      <c r="A63" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B63" s="45">
         <v>0.981595</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C63" s="45">
         <v>0.981595</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D63" s="45">
         <v>0.981595</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6">
-      <c r="A11" s="42" t="s">
+    <row r="64" spans="1:4" ht="15.6">
+      <c r="A64" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B64" s="45">
         <v>0.875</v>
       </c>
-      <c r="C11" s="21">
-        <v>0.894231</v>
-      </c>
-      <c r="D11" s="22">
-        <v>0.90384600000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.6">
-      <c r="A12" s="42" t="s">
+      <c r="C64" s="45">
+        <v>0.875</v>
+      </c>
+      <c r="D64" s="45">
+        <v>0.88461500000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.6">
+      <c r="A65" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B65" s="45">
+        <v>0.89671400000000001</v>
+      </c>
+      <c r="C65" s="45">
         <v>0.90140799999999999</v>
       </c>
-      <c r="C12" s="21">
+      <c r="D65" s="45">
         <v>0.910798</v>
       </c>
-      <c r="D12" s="22">
-        <v>0.910798</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.6">
-      <c r="A13" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="21">
-        <v>0.68235299999999999</v>
-      </c>
-      <c r="C13" s="21">
-        <v>0.75294099999999997</v>
-      </c>
-      <c r="D13" s="22">
-        <v>0.764706</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.6">
-      <c r="A14" s="42" t="s">
+    </row>
+    <row r="66" spans="1:4" ht="15.6">
+      <c r="A66" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="21">
-        <v>0.57358500000000001</v>
-      </c>
-      <c r="C14" s="21">
+      <c r="B66" s="45">
+        <v>0.54717000000000005</v>
+      </c>
+      <c r="C66" s="45">
+        <v>0.58113199999999998</v>
+      </c>
+      <c r="D66" s="45">
         <v>0.62264200000000003</v>
       </c>
-      <c r="D14" s="22">
-        <v>0.641509</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.6">
-      <c r="A15" s="42" t="s">
+    </row>
+    <row r="67" spans="1:4" ht="15.6">
+      <c r="A67" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="24">
-        <v>0.87671200000000005</v>
-      </c>
-      <c r="C15" s="24">
-        <v>0.87671200000000005</v>
-      </c>
-      <c r="D15" s="25">
-        <v>0.87671200000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.6">
-      <c r="A16" s="42" t="s">
+      <c r="B67" s="46">
+        <v>0.86301399999999995</v>
+      </c>
+      <c r="C67" s="46">
+        <v>0.86986300000000005</v>
+      </c>
+      <c r="D67" s="45">
+        <v>0.86986300000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.6">
+      <c r="A68" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="18">
-        <v>0.81481499999999996</v>
-      </c>
-      <c r="C16" s="21">
-        <v>0.87963000000000002</v>
-      </c>
-      <c r="D16" s="22">
-        <v>0.89814799999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.6">
-      <c r="A17" s="42" t="s">
+      <c r="B68" s="47">
+        <v>0.87036999999999998</v>
+      </c>
+      <c r="C68" s="45">
+        <v>0.87036999999999998</v>
+      </c>
+      <c r="D68" s="48">
+        <v>0.87036999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.6">
+      <c r="A69" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="18">
-        <v>0.75126499999999996</v>
-      </c>
-      <c r="C17" s="21">
-        <v>0.78396299999999997</v>
-      </c>
-      <c r="D17" s="22">
-        <v>0.78785499999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.6">
-      <c r="A18" s="42" t="s">
+      <c r="B69" s="47">
+        <v>0.79641899999999999</v>
+      </c>
+      <c r="C69" s="45">
+        <v>0.79797600000000002</v>
+      </c>
+      <c r="D69" s="48">
+        <v>0.79875399999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.6">
+      <c r="A70" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="18">
-        <v>0.70843999999999996</v>
-      </c>
-      <c r="C18" s="21">
-        <v>0.74680299999999999</v>
-      </c>
-      <c r="D18" s="22">
-        <v>0.74424599999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.6">
-      <c r="A19" s="42" t="s">
+      <c r="B70" s="47">
+        <v>0.73401499999999997</v>
+      </c>
+      <c r="C70" s="45">
+        <v>0.72634299999999996</v>
+      </c>
+      <c r="D70" s="56">
+        <v>0.72122799999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.6">
+      <c r="A71" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="18">
-        <v>0.75384600000000002</v>
-      </c>
-      <c r="C19" s="21">
+      <c r="B71" s="47">
         <v>0.78461499999999995</v>
       </c>
-      <c r="D19" s="22">
-        <v>0.81538500000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.6">
-      <c r="A20" s="42" t="s">
+      <c r="C71" s="45">
+        <v>0.78461499999999995</v>
+      </c>
+      <c r="D71" s="48">
+        <v>0.78461499999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.6">
+      <c r="A72" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="18">
-        <v>0.97108099999999997</v>
-      </c>
-      <c r="C20" s="21">
+      <c r="B72" s="47">
         <v>0.97412500000000002</v>
       </c>
-      <c r="D20" s="22">
-        <v>0.97869099999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.6">
-      <c r="A21" s="42" t="s">
+      <c r="C72" s="45">
+        <v>0.97716899999999995</v>
+      </c>
+      <c r="D72" s="48">
+        <v>0.97716899999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.6">
+      <c r="A73" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="18">
-        <v>0.81333299999999997</v>
-      </c>
-      <c r="C21" s="21">
-        <v>0.83714299999999997</v>
-      </c>
-      <c r="D21" s="22">
-        <v>0.85714299999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.6">
-      <c r="A22" s="42" t="s">
+      <c r="B73" s="47">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="C73" s="45">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="D73" s="48">
+        <v>0.83333299999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.6">
+      <c r="A74" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="18">
-        <v>0.92132999999999998</v>
-      </c>
-      <c r="C22" s="21">
-        <v>0.92562199999999994</v>
-      </c>
-      <c r="D22" s="22">
+      <c r="B74" s="47">
+        <v>0.93132999999999999</v>
+      </c>
+      <c r="C74" s="45">
         <v>0.93562199999999995</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.6">
-      <c r="A23" s="42" t="s">
+      <c r="D74" s="48">
+        <v>0.93562199999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.6">
+      <c r="A75" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B75" s="47">
         <v>0.96341500000000002</v>
       </c>
-      <c r="C23" s="21">
-        <v>0.96748000000000001</v>
-      </c>
-      <c r="D23" s="22">
-        <v>0.96748000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.6">
-      <c r="A24" s="42" t="s">
+      <c r="C75" s="45">
+        <v>0.96341500000000002</v>
+      </c>
+      <c r="D75" s="48">
+        <v>0.96341500000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.6">
+      <c r="A76" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B76" s="47">
         <v>0.84550599999999998</v>
       </c>
-      <c r="C24" s="21">
-        <v>0.856742</v>
-      </c>
-      <c r="D24" s="22">
-        <v>0.87359600000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.6">
-      <c r="A25" s="42" t="s">
+      <c r="C76" s="45">
+        <v>0.84831500000000004</v>
+      </c>
+      <c r="D76" s="48">
+        <v>0.84831500000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.6">
+      <c r="A77" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="18">
-        <v>0.84941199999999994</v>
-      </c>
-      <c r="C25" s="21">
-        <v>0.89176500000000003</v>
-      </c>
-      <c r="D25" s="22">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.6">
-      <c r="A26" s="41" t="s">
+      <c r="B77" s="47">
+        <v>0.87529400000000002</v>
+      </c>
+      <c r="C77" s="45">
+        <v>0.88941199999999998</v>
+      </c>
+      <c r="D77" s="57">
+        <v>0.87764699999999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.6">
+      <c r="A78" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="19">
-        <v>0.66902700000000004</v>
-      </c>
-      <c r="C26" s="24">
-        <v>0.73628300000000002</v>
-      </c>
-      <c r="D26" s="25">
-        <v>0.75044200000000005</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="19.2">
-      <c r="A31" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="51"/>
-    </row>
-    <row r="32" spans="1:4" ht="16.8">
-      <c r="A32" s="50"/>
-      <c r="B32" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.6">
-      <c r="A33" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="61">
-        <v>0.478632</v>
-      </c>
-      <c r="C33" s="62">
-        <v>0.81896599999999997</v>
-      </c>
-      <c r="D33" s="63">
-        <v>0.82758600000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.6">
-      <c r="A34" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="80">
-        <v>0.78448300000000004</v>
-      </c>
-      <c r="C34" s="62">
-        <v>0.74796700000000005</v>
-      </c>
-      <c r="D34" s="81">
-        <v>0.77642299999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.6">
-      <c r="A35" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="61">
-        <v>0.42352899999999999</v>
-      </c>
-      <c r="C35" s="62">
-        <v>0.84375</v>
-      </c>
-      <c r="D35" s="63">
-        <v>0.84375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.6">
-      <c r="A36" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="61">
-        <v>0.54878000000000005</v>
-      </c>
-      <c r="C36" s="62">
-        <v>0.74921599999999999</v>
-      </c>
-      <c r="D36" s="63">
-        <v>0.78683400000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.6">
-      <c r="A37" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="61">
-        <v>0.47924499999999998</v>
-      </c>
-      <c r="C37" s="62">
-        <v>0.83760699999999999</v>
-      </c>
-      <c r="D37" s="63">
-        <v>0.85470100000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.6">
-      <c r="A38" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="61">
-        <v>0.66438399999999997</v>
-      </c>
-      <c r="C38" s="62">
-        <v>0.90163899999999997</v>
-      </c>
-      <c r="D38" s="63">
-        <v>0.90983599999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.6">
-      <c r="A39" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="61">
-        <v>0.65830699999999998</v>
-      </c>
-      <c r="C39" s="62">
-        <v>0.98773</v>
-      </c>
-      <c r="D39" s="63">
-        <v>0.98773</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.6">
-      <c r="A40" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="61">
-        <v>0.68055600000000005</v>
-      </c>
-      <c r="C40" s="62">
-        <v>0.913462</v>
-      </c>
-      <c r="D40" s="63">
-        <v>0.913462</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.6">
-      <c r="A41" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="61">
-        <v>0.309859</v>
-      </c>
-      <c r="C41" s="62">
-        <v>0.887324</v>
-      </c>
-      <c r="D41" s="63">
-        <v>0.90610299999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.6">
-      <c r="A42" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="80">
-        <v>0.92637999999999998</v>
-      </c>
-      <c r="C42" s="62">
-        <v>0.70588200000000001</v>
-      </c>
-      <c r="D42" s="63">
-        <v>0.74117599999999995</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.6">
-      <c r="A43" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="61">
-        <v>0.57377</v>
-      </c>
-      <c r="C43" s="62">
-        <v>0.56226399999999999</v>
-      </c>
-      <c r="D43" s="63">
-        <v>0.57735800000000004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.6">
-      <c r="A44" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="64">
-        <v>0.88461500000000004</v>
-      </c>
-      <c r="C44" s="78">
-        <v>0.81506800000000001</v>
-      </c>
-      <c r="D44" s="79">
-        <v>0.86301399999999995</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.6">
-      <c r="A45" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="67">
-        <v>0.76851899999999995</v>
-      </c>
-      <c r="C45" s="62">
-        <v>0.78703699999999999</v>
-      </c>
-      <c r="D45" s="63">
-        <v>0.81481499999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.6">
-      <c r="A46" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="67">
-        <v>0.79174800000000001</v>
-      </c>
-      <c r="C46" s="62">
-        <v>0.79564000000000001</v>
-      </c>
-      <c r="D46" s="63">
-        <v>0.800701</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.6">
-      <c r="A47" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="67">
-        <v>0.73145800000000005</v>
-      </c>
-      <c r="C47" s="62">
-        <v>0.74680299999999999</v>
-      </c>
-      <c r="D47" s="63">
-        <v>0.75703299999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.6">
-      <c r="A48" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="67">
-        <v>0.73846199999999995</v>
-      </c>
-      <c r="C48" s="62">
-        <v>0.8</v>
-      </c>
-      <c r="D48" s="63">
-        <v>0.78461499999999995</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.6">
-      <c r="A49" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" s="67">
-        <v>0.960426</v>
-      </c>
-      <c r="C49" s="62">
-        <v>0.97412500000000002</v>
-      </c>
-      <c r="D49" s="63">
-        <v>0.97564700000000004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.6">
-      <c r="A50" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="67">
-        <v>0.75</v>
-      </c>
-      <c r="C50" s="62">
-        <v>0.83333299999999999</v>
-      </c>
-      <c r="D50" s="63">
-        <v>0.84523800000000004</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.6">
-      <c r="A51" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="67">
-        <v>0.87982800000000005</v>
-      </c>
-      <c r="C51" s="62">
-        <v>0.90987099999999999</v>
-      </c>
-      <c r="D51" s="63">
-        <v>0.91416299999999995</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.6">
-      <c r="A52" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="67">
-        <v>0.45122000000000001</v>
-      </c>
-      <c r="C52" s="62">
-        <v>0.91869900000000004</v>
-      </c>
-      <c r="D52" s="82">
-        <v>0.96748000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.6">
-      <c r="A53" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="67">
-        <v>0.35955100000000001</v>
-      </c>
-      <c r="C53" s="62">
-        <v>0.83707900000000002</v>
-      </c>
-      <c r="D53" s="82">
-        <v>0.86516899999999997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.6">
-      <c r="A54" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" s="67">
-        <v>0.87058800000000003</v>
-      </c>
-      <c r="C54" s="62">
-        <v>0.89882399999999996</v>
-      </c>
-      <c r="D54" s="82">
-        <v>0.90823500000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.6">
-      <c r="A55" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" s="68">
-        <v>0.72212399999999999</v>
-      </c>
-      <c r="C55" s="65">
-        <v>0.73805299999999996</v>
-      </c>
-      <c r="D55" s="79">
-        <v>0.74159299999999995</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="19.2">
-      <c r="A60" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="46"/>
-      <c r="D60" s="45"/>
-    </row>
-    <row r="61" spans="1:4" ht="16.8">
-      <c r="A61" s="44"/>
-      <c r="B61" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.6">
-      <c r="A62" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="72">
-        <v>0.77586200000000005</v>
-      </c>
-      <c r="C62" s="72">
-        <v>0.81034499999999998</v>
-      </c>
-      <c r="D62" s="84">
-        <v>0.76724099999999995</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.6">
-      <c r="A63" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="72">
-        <v>0.75203299999999995</v>
-      </c>
-      <c r="C63" s="72">
-        <v>0.75203299999999995</v>
-      </c>
-      <c r="D63" s="72">
-        <v>0.75609800000000005</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.6">
-      <c r="A64" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" s="72">
-        <v>0.84375</v>
-      </c>
-      <c r="C64" s="72">
-        <v>0.84375</v>
-      </c>
-      <c r="D64" s="72">
-        <v>0.85416700000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.6">
-      <c r="A65" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="72">
-        <v>0.78683400000000003</v>
-      </c>
-      <c r="C65" s="72">
-        <v>0.78683400000000003</v>
-      </c>
-      <c r="D65" s="72">
-        <v>0.78996900000000003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.6">
-      <c r="A66" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" s="72">
-        <v>0.83760699999999999</v>
-      </c>
-      <c r="C66" s="72">
-        <v>0.83760699999999999</v>
-      </c>
-      <c r="D66" s="72">
-        <v>0.84615399999999996</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.6">
-      <c r="A67" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" s="72">
-        <v>0.88524599999999998</v>
-      </c>
-      <c r="C67" s="72">
-        <v>0.89344299999999999</v>
-      </c>
-      <c r="D67" s="72">
-        <v>0.89344299999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.6">
-      <c r="A68" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="72">
-        <v>0.981595</v>
-      </c>
-      <c r="C68" s="72">
-        <v>0.981595</v>
-      </c>
-      <c r="D68" s="72">
-        <v>0.981595</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.6">
-      <c r="A69" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B69" s="72">
-        <v>0.875</v>
-      </c>
-      <c r="C69" s="72">
-        <v>0.875</v>
-      </c>
-      <c r="D69" s="72">
-        <v>0.88461500000000004</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.6">
-      <c r="A70" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="72">
-        <v>0.89671400000000001</v>
-      </c>
-      <c r="C70" s="72">
-        <v>0.90140799999999999</v>
-      </c>
-      <c r="D70" s="72">
-        <v>0.910798</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.6">
-      <c r="A71" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B71" s="72">
-        <v>0.68235299999999999</v>
-      </c>
-      <c r="C71" s="72">
-        <v>0.75294099999999997</v>
-      </c>
-      <c r="D71" s="85">
-        <v>0.81176499999999996</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.6">
-      <c r="A72" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B72" s="72">
-        <v>0.54717000000000005</v>
-      </c>
-      <c r="C72" s="72">
-        <v>0.58113199999999998</v>
-      </c>
-      <c r="D72" s="72">
-        <v>0.62264200000000003</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.6">
-      <c r="A73" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B73" s="73">
-        <v>0.86301399999999995</v>
-      </c>
-      <c r="C73" s="73">
-        <v>0.86986300000000005</v>
-      </c>
-      <c r="D73" s="72">
-        <v>0.86986300000000005</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.6">
-      <c r="A74" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B74" s="74">
-        <v>0.87036999999999998</v>
-      </c>
-      <c r="C74" s="72">
-        <v>0.87036999999999998</v>
-      </c>
-      <c r="D74" s="75">
-        <v>0.87036999999999998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.6">
-      <c r="A75" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B75" s="74">
-        <v>0.79641899999999999</v>
-      </c>
-      <c r="C75" s="72">
-        <v>0.79797600000000002</v>
-      </c>
-      <c r="D75" s="75">
-        <v>0.79875399999999996</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.6">
-      <c r="A76" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B76" s="74">
-        <v>0.73401499999999997</v>
-      </c>
-      <c r="C76" s="72">
-        <v>0.72634299999999996</v>
-      </c>
-      <c r="D76" s="83">
-        <v>0.72122799999999998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.6">
-      <c r="A77" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B77" s="74">
-        <v>0.78461499999999995</v>
-      </c>
-      <c r="C77" s="72">
-        <v>0.78461499999999995</v>
-      </c>
-      <c r="D77" s="75">
-        <v>0.78461499999999995</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.6">
-      <c r="A78" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78" s="74">
-        <v>0.97412500000000002</v>
-      </c>
-      <c r="C78" s="72">
-        <v>0.97716899999999995</v>
-      </c>
-      <c r="D78" s="75">
-        <v>0.97716899999999995</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.6">
-      <c r="A79" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" s="74">
-        <v>0.83333299999999999</v>
-      </c>
-      <c r="C79" s="72">
-        <v>0.83333299999999999</v>
-      </c>
-      <c r="D79" s="75">
-        <v>0.83333299999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.6">
-      <c r="A80" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B80" s="74">
-        <v>0.93132999999999999</v>
-      </c>
-      <c r="C80" s="72">
-        <v>0.93562199999999995</v>
-      </c>
-      <c r="D80" s="75">
-        <v>0.93562199999999995</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.6">
-      <c r="A81" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B81" s="74">
-        <v>0.96341500000000002</v>
-      </c>
-      <c r="C81" s="72">
-        <v>0.96341500000000002</v>
-      </c>
-      <c r="D81" s="75">
-        <v>0.96341500000000002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.6">
-      <c r="A82" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B82" s="74">
-        <v>0.84550599999999998</v>
-      </c>
-      <c r="C82" s="72">
-        <v>0.84831500000000004</v>
-      </c>
-      <c r="D82" s="75">
-        <v>0.84831500000000004</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.6">
-      <c r="A83" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="B83" s="74">
-        <v>0.87529400000000002</v>
-      </c>
-      <c r="C83" s="72">
-        <v>0.88941199999999998</v>
-      </c>
-      <c r="D83" s="86">
-        <v>0.87764699999999995</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.6">
-      <c r="A84" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84" s="76">
+      <c r="B78" s="49">
         <v>0.718584</v>
       </c>
-      <c r="C84" s="73">
+      <c r="C78" s="46">
         <v>0.73451299999999997</v>
       </c>
-      <c r="D84" s="77">
+      <c r="D78" s="50">
         <v>0.73451299999999997</v>
       </c>
     </row>
@@ -18839,13 +18731,13 @@
   <mergeCells count="6">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:D56"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:D4">
-    <cfRule type="iconSet" priority="46">
+    <cfRule type="iconSet" priority="45">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18854,7 +18746,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:D5">
-    <cfRule type="iconSet" priority="45">
+    <cfRule type="iconSet" priority="44">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18863,7 +18755,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:D6">
-    <cfRule type="iconSet" priority="44">
+    <cfRule type="iconSet" priority="43">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18872,7 +18764,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:D7">
-    <cfRule type="iconSet" priority="43">
+    <cfRule type="iconSet" priority="42">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18881,7 +18773,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:D8">
-    <cfRule type="iconSet" priority="42">
+    <cfRule type="iconSet" priority="41">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18890,7 +18782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:D9">
-    <cfRule type="iconSet" priority="41">
+    <cfRule type="iconSet" priority="40">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18899,7 +18791,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:D10">
-    <cfRule type="iconSet" priority="40">
+    <cfRule type="iconSet" priority="39">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18908,7 +18800,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:D11">
-    <cfRule type="iconSet" priority="39">
+    <cfRule type="iconSet" priority="38">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18917,7 +18809,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:D12">
-    <cfRule type="iconSet" priority="38">
+    <cfRule type="iconSet" priority="36">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18926,7 +18818,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D13">
-    <cfRule type="iconSet" priority="37">
+    <cfRule type="iconSet" priority="35">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18935,7 +18827,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D14">
-    <cfRule type="iconSet" priority="36">
+    <cfRule type="iconSet" priority="34">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18944,7 +18836,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D15">
-    <cfRule type="iconSet" priority="35">
+    <cfRule type="iconSet" priority="33">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18953,7 +18845,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:D16">
-    <cfRule type="iconSet" priority="34">
+    <cfRule type="iconSet" priority="32">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18962,7 +18854,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:D17">
-    <cfRule type="iconSet" priority="33">
+    <cfRule type="iconSet" priority="31">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18971,7 +18863,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:D18">
-    <cfRule type="iconSet" priority="32">
+    <cfRule type="iconSet" priority="30">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18980,7 +18872,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:D19">
-    <cfRule type="iconSet" priority="31">
+    <cfRule type="iconSet" priority="29">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18989,7 +18881,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:D20">
-    <cfRule type="iconSet" priority="30">
+    <cfRule type="iconSet" priority="28">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18998,7 +18890,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:D21">
-    <cfRule type="iconSet" priority="29">
+    <cfRule type="iconSet" priority="27">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19007,7 +18899,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:D22">
-    <cfRule type="iconSet" priority="28">
+    <cfRule type="iconSet" priority="26">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19016,7 +18908,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:D23">
-    <cfRule type="iconSet" priority="27">
+    <cfRule type="iconSet" priority="25">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19025,24 +18917,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:D24">
-    <cfRule type="iconSet" priority="26">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:D25">
-    <cfRule type="iconSet" priority="25">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:D26">
     <cfRule type="iconSet" priority="24">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -19051,8 +18925,44 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C58:D58">
+    <cfRule type="iconSet" priority="22">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:D59">
+    <cfRule type="iconSet" priority="21">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:D60">
+    <cfRule type="iconSet" priority="20">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61:D61">
+    <cfRule type="iconSet" priority="19">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C62:D62">
-    <cfRule type="iconSet" priority="23">
+    <cfRule type="iconSet" priority="18">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19061,7 +18971,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:D63">
-    <cfRule type="iconSet" priority="22">
+    <cfRule type="iconSet" priority="17">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19070,7 +18980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:D64">
-    <cfRule type="iconSet" priority="21">
+    <cfRule type="iconSet" priority="16">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19079,7 +18989,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:D65">
-    <cfRule type="iconSet" priority="20">
+    <cfRule type="iconSet" priority="15">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19088,7 +18998,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66:D66">
-    <cfRule type="iconSet" priority="19">
+    <cfRule type="iconSet" priority="13">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19097,7 +19007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67:D67">
-    <cfRule type="iconSet" priority="18">
+    <cfRule type="iconSet" priority="12">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19106,7 +19016,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:D68">
-    <cfRule type="iconSet" priority="17">
+    <cfRule type="iconSet" priority="11">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19115,7 +19025,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:D69">
-    <cfRule type="iconSet" priority="16">
+    <cfRule type="iconSet" priority="10">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19124,7 +19034,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:D70">
-    <cfRule type="iconSet" priority="15">
+    <cfRule type="iconSet" priority="9">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19133,7 +19043,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:D71">
-    <cfRule type="iconSet" priority="14">
+    <cfRule type="iconSet" priority="8">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19142,7 +19052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72:D72">
-    <cfRule type="iconSet" priority="13">
+    <cfRule type="iconSet" priority="7">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19151,7 +19061,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73:D73">
-    <cfRule type="iconSet" priority="12">
+    <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19160,7 +19070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:D74">
-    <cfRule type="iconSet" priority="11">
+    <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19169,7 +19079,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:D75">
-    <cfRule type="iconSet" priority="10">
+    <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19178,7 +19088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76:D76">
-    <cfRule type="iconSet" priority="9">
+    <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19187,7 +19097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:D77">
-    <cfRule type="iconSet" priority="8">
+    <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19196,60 +19106,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78:D78">
-    <cfRule type="iconSet" priority="7">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C79:D79">
-    <cfRule type="iconSet" priority="6">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80:D80">
-    <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81:D81">
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:D82">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C83:D83">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84:D84">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -19268,10 +19124,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:J25"/>
+    <sheetView topLeftCell="C1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -19283,34 +19139,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29.05" customHeight="1" thickBot="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="31" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="69" t="s">
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:26" ht="17.100000000000001" thickTop="1" thickBot="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="60" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="35" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="17" t="s">
@@ -19322,27 +19178,30 @@
       <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="44" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.9" thickTop="1">
+      <c r="M2" s="76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="17.100000000000001" thickTop="1" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="61">
+      <c r="B3" s="36">
         <v>0.478632</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="37">
         <v>0.81896599999999997</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="38">
         <v>0.82758600000000004</v>
       </c>
       <c r="E3" s="21">
@@ -19354,27 +19213,37 @@
       <c r="G3" s="22">
         <v>0.83620700000000003</v>
       </c>
-      <c r="H3" s="72">
+      <c r="H3" s="45">
         <v>0.77586200000000005</v>
       </c>
-      <c r="I3" s="72">
+      <c r="I3" s="45">
         <v>0.81034499999999998</v>
       </c>
-      <c r="J3" s="72">
+      <c r="J3" s="45">
         <v>0.76724099999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+      <c r="M3" s="77"/>
+      <c r="N3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" thickTop="1">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="36">
         <v>0.78448300000000004</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="37">
         <v>0.74796700000000005</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="38">
         <v>0.77642299999999997</v>
       </c>
       <c r="E4" s="21">
@@ -19386,27 +19255,39 @@
       <c r="G4" s="22">
         <v>0.77235799999999999</v>
       </c>
-      <c r="H4" s="72">
+      <c r="H4" s="45">
         <v>0.75203299999999995</v>
       </c>
-      <c r="I4" s="72">
+      <c r="I4" s="45">
         <v>0.75203299999999995</v>
       </c>
-      <c r="J4" s="72">
+      <c r="J4" s="45">
         <v>0.75609800000000005</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="38">
+        <v>0.82758600000000004</v>
+      </c>
+      <c r="O4" s="22">
+        <v>0.83620700000000003</v>
+      </c>
+      <c r="P4" s="22">
+        <v>0.83620700000000003</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="36">
         <v>0.42352899999999999</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="37">
         <v>0.84375</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="38">
         <v>0.84375</v>
       </c>
       <c r="E5" s="21">
@@ -19418,27 +19299,39 @@
       <c r="G5" s="22">
         <v>0.85763900000000004</v>
       </c>
-      <c r="H5" s="72">
+      <c r="H5" s="45">
         <v>0.84375</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="45">
         <v>0.84375</v>
       </c>
-      <c r="J5" s="72">
+      <c r="J5" s="45">
         <v>0.85416700000000001</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="38">
+        <v>0.77642299999999997</v>
+      </c>
+      <c r="O5" s="22">
+        <v>0.77235799999999999</v>
+      </c>
+      <c r="P5" s="22">
+        <v>0.77235799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="36">
         <v>0.54878000000000005</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="37">
         <v>0.74921599999999999</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="38">
         <v>0.78683400000000003</v>
       </c>
       <c r="E6" s="21">
@@ -19450,27 +19343,39 @@
       <c r="G6" s="22">
         <v>0.799373</v>
       </c>
-      <c r="H6" s="72">
+      <c r="H6" s="45">
         <v>0.78683400000000003</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="45">
         <v>0.78683400000000003</v>
       </c>
-      <c r="J6" s="72">
+      <c r="J6" s="45">
         <v>0.78996900000000003</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="38">
+        <v>0.84375</v>
+      </c>
+      <c r="O6" s="22">
+        <v>0.85763900000000004</v>
+      </c>
+      <c r="P6" s="22">
+        <v>0.85763900000000004</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="36">
         <v>0.47924499999999998</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="37">
         <v>0.83760699999999999</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="38">
         <v>0.85470100000000004</v>
       </c>
       <c r="E7" s="21">
@@ -19482,27 +19387,39 @@
       <c r="G7" s="22">
         <v>0.83760699999999999</v>
       </c>
-      <c r="H7" s="72">
+      <c r="H7" s="45">
         <v>0.83760699999999999</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="45">
         <v>0.83760699999999999</v>
       </c>
-      <c r="J7" s="72">
+      <c r="J7" s="45">
         <v>0.84615399999999996</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="38">
+        <v>0.78683400000000003</v>
+      </c>
+      <c r="O7" s="22">
+        <v>0.799373</v>
+      </c>
+      <c r="P7" s="22">
+        <v>0.799373</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="36">
         <v>0.66438399999999997</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="37">
         <v>0.90163899999999997</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="38">
         <v>0.90983599999999998</v>
       </c>
       <c r="E8" s="21">
@@ -19514,27 +19431,39 @@
       <c r="G8" s="22">
         <v>0.90983599999999998</v>
       </c>
-      <c r="H8" s="72">
+      <c r="H8" s="45">
         <v>0.88524599999999998</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="45">
         <v>0.89344299999999999</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="45">
         <v>0.89344299999999999</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="38">
+        <v>0.85470100000000004</v>
+      </c>
+      <c r="O8" s="22">
+        <v>0.83760699999999999</v>
+      </c>
+      <c r="P8" s="22">
+        <v>0.83760699999999999</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="61">
+      <c r="B9" s="36">
         <v>0.65830699999999998</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="37">
         <v>0.98773</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="38">
         <v>0.98773</v>
       </c>
       <c r="E9" s="21">
@@ -19546,27 +19475,39 @@
       <c r="G9" s="22">
         <v>0.981595</v>
       </c>
-      <c r="H9" s="72">
+      <c r="H9" s="45">
         <v>0.981595</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="45">
         <v>0.981595</v>
       </c>
-      <c r="J9" s="72">
+      <c r="J9" s="45">
         <v>0.981595</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="38">
+        <v>0.90983599999999998</v>
+      </c>
+      <c r="O9" s="22">
+        <v>0.90983599999999998</v>
+      </c>
+      <c r="P9" s="22">
+        <v>0.90983599999999998</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="36">
         <v>0.68055600000000005</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="37">
         <v>0.913462</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="38">
         <v>0.913462</v>
       </c>
       <c r="E10" s="21">
@@ -19578,27 +19519,39 @@
       <c r="G10" s="22">
         <v>0.90384600000000004</v>
       </c>
-      <c r="H10" s="72">
+      <c r="H10" s="45">
         <v>0.875</v>
       </c>
-      <c r="I10" s="72">
+      <c r="I10" s="45">
         <v>0.875</v>
       </c>
-      <c r="J10" s="72">
+      <c r="J10" s="45">
         <v>0.88461500000000004</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="38">
+        <v>0.98773</v>
+      </c>
+      <c r="O10" s="22">
+        <v>0.981595</v>
+      </c>
+      <c r="P10" s="22">
+        <v>0.981595</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="36">
         <v>0.309859</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="37">
         <v>0.887324</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="38">
         <v>0.90610299999999999</v>
       </c>
       <c r="E11" s="21">
@@ -19610,27 +19563,39 @@
       <c r="G11" s="22">
         <v>0.910798</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="45">
         <v>0.89671400000000001</v>
       </c>
-      <c r="I11" s="72">
+      <c r="I11" s="45">
         <v>0.90140799999999999</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="45">
         <v>0.910798</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="38">
+        <v>0.913462</v>
+      </c>
+      <c r="O11" s="22">
+        <v>0.90384600000000004</v>
+      </c>
+      <c r="P11" s="22">
+        <v>0.90384600000000004</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="36">
         <v>0.92637999999999998</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="37">
         <v>0.70588200000000001</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="38">
         <v>0.74117599999999995</v>
       </c>
       <c r="E12" s="21">
@@ -19642,27 +19607,39 @@
       <c r="G12" s="22">
         <v>0.764706</v>
       </c>
-      <c r="H12" s="72">
+      <c r="H12" s="45">
         <v>0.68235299999999999</v>
       </c>
-      <c r="I12" s="72">
+      <c r="I12" s="45">
         <v>0.75294099999999997</v>
       </c>
-      <c r="J12" s="72">
+      <c r="J12" s="45">
         <v>0.81176499999999996</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="38">
+        <v>0.90610299999999999</v>
+      </c>
+      <c r="O12" s="22">
+        <v>0.910798</v>
+      </c>
+      <c r="P12" s="22">
+        <v>0.910798</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="36">
         <v>0.57377</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="37">
         <v>0.56226399999999999</v>
       </c>
-      <c r="D13" s="63">
+      <c r="D13" s="38">
         <v>0.57735800000000004</v>
       </c>
       <c r="E13" s="21">
@@ -19674,27 +19651,39 @@
       <c r="G13" s="22">
         <v>0.641509</v>
       </c>
-      <c r="H13" s="72">
+      <c r="H13" s="45">
         <v>0.54717000000000005</v>
       </c>
-      <c r="I13" s="72">
+      <c r="I13" s="45">
         <v>0.58113199999999998</v>
       </c>
-      <c r="J13" s="72">
+      <c r="J13" s="45">
         <v>0.62264200000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" s="9" customFormat="1" ht="15.3">
+      <c r="M13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="38">
+        <v>0.74117599999999995</v>
+      </c>
+      <c r="O13" s="22">
+        <v>0.764706</v>
+      </c>
+      <c r="P13" s="22">
+        <v>0.764706</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="9" customFormat="1" ht="15.6">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="39">
         <v>0.88461500000000004</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="40">
         <v>0.81506800000000001</v>
       </c>
-      <c r="D14" s="66">
+      <c r="D14" s="41">
         <v>0.86301399999999995</v>
       </c>
       <c r="E14" s="24">
@@ -19706,21 +19695,29 @@
       <c r="G14" s="25">
         <v>0.87671200000000005</v>
       </c>
-      <c r="H14" s="73">
+      <c r="H14" s="46">
         <v>0.86301399999999995</v>
       </c>
-      <c r="I14" s="73">
+      <c r="I14" s="46">
         <v>0.86986300000000005</v>
       </c>
-      <c r="J14" s="72">
+      <c r="J14" s="45">
         <v>0.86986300000000005</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+      <c r="M14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="38">
+        <v>0.57735800000000004</v>
+      </c>
+      <c r="O14" s="22">
+        <v>0.641509</v>
+      </c>
+      <c r="P14" s="22">
+        <v>0.641509</v>
+      </c>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -19736,13 +19733,13 @@
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="67">
+      <c r="B15" s="42">
         <v>0.76851899999999995</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="37">
         <v>0.78703699999999999</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="38">
         <v>0.81481499999999996</v>
       </c>
       <c r="E15" s="18">
@@ -19754,27 +19751,39 @@
       <c r="G15" s="22">
         <v>0.89814799999999995</v>
       </c>
-      <c r="H15" s="74">
+      <c r="H15" s="47">
         <v>0.87036999999999998</v>
       </c>
-      <c r="I15" s="72">
+      <c r="I15" s="45">
         <v>0.87036999999999998</v>
       </c>
-      <c r="J15" s="75">
+      <c r="J15" s="48">
         <v>0.87036999999999998</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="41">
+        <v>0.86301399999999995</v>
+      </c>
+      <c r="O15" s="25">
+        <v>0.87671200000000005</v>
+      </c>
+      <c r="P15" s="25">
+        <v>0.87671200000000005</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.6">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="67">
+      <c r="B16" s="42">
         <v>0.79174800000000001</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="37">
         <v>0.79564000000000001</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="38">
         <v>0.800701</v>
       </c>
       <c r="E16" s="18">
@@ -19786,27 +19795,39 @@
       <c r="G16" s="22">
         <v>0.78785499999999997</v>
       </c>
-      <c r="H16" s="74">
+      <c r="H16" s="47">
         <v>0.79641899999999999</v>
       </c>
-      <c r="I16" s="72">
+      <c r="I16" s="45">
         <v>0.79797600000000002</v>
       </c>
-      <c r="J16" s="75">
+      <c r="J16" s="48">
         <v>0.79875399999999996</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="38">
+        <v>0.81481499999999996</v>
+      </c>
+      <c r="O16" s="22">
+        <v>0.89814799999999995</v>
+      </c>
+      <c r="P16" s="22">
+        <v>0.89814799999999995</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.6">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="67">
+      <c r="B17" s="42">
         <v>0.73145800000000005</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="37">
         <v>0.74680299999999999</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="38">
         <v>0.75703299999999996</v>
       </c>
       <c r="E17" s="18">
@@ -19818,27 +19839,39 @@
       <c r="G17" s="22">
         <v>0.74424599999999996</v>
       </c>
-      <c r="H17" s="74">
+      <c r="H17" s="47">
         <v>0.73401499999999997</v>
       </c>
-      <c r="I17" s="72">
+      <c r="I17" s="45">
         <v>0.72634299999999996</v>
       </c>
-      <c r="J17" s="75">
+      <c r="J17" s="48">
         <v>0.72122799999999998</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="38">
+        <v>0.800701</v>
+      </c>
+      <c r="O17" s="22">
+        <v>0.78785499999999997</v>
+      </c>
+      <c r="P17" s="22">
+        <v>0.78785499999999997</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15.6">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="67">
+      <c r="B18" s="42">
         <v>0.73846199999999995</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="37">
         <v>0.8</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="38">
         <v>0.78461499999999995</v>
       </c>
       <c r="E18" s="18">
@@ -19850,27 +19883,39 @@
       <c r="G18" s="22">
         <v>0.81538500000000003</v>
       </c>
-      <c r="H18" s="74">
+      <c r="H18" s="47">
         <v>0.78461499999999995</v>
       </c>
-      <c r="I18" s="72">
+      <c r="I18" s="45">
         <v>0.78461499999999995</v>
       </c>
-      <c r="J18" s="75">
+      <c r="J18" s="48">
         <v>0.78461499999999995</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="38">
+        <v>0.75703299999999996</v>
+      </c>
+      <c r="O18" s="22">
+        <v>0.74424599999999996</v>
+      </c>
+      <c r="P18" s="22">
+        <v>0.74424599999999996</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.6">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="67">
+      <c r="B19" s="42">
         <v>0.960426</v>
       </c>
-      <c r="C19" s="62">
+      <c r="C19" s="37">
         <v>0.97412500000000002</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="38">
         <v>0.97564700000000004</v>
       </c>
       <c r="E19" s="18">
@@ -19882,27 +19927,39 @@
       <c r="G19" s="22">
         <v>0.97869099999999998</v>
       </c>
-      <c r="H19" s="74">
+      <c r="H19" s="47">
         <v>0.97412500000000002</v>
       </c>
-      <c r="I19" s="72">
+      <c r="I19" s="45">
         <v>0.97716899999999995</v>
       </c>
-      <c r="J19" s="75">
+      <c r="J19" s="48">
         <v>0.97716899999999995</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="38">
+        <v>0.78461499999999995</v>
+      </c>
+      <c r="O19" s="22">
+        <v>0.81538500000000003</v>
+      </c>
+      <c r="P19" s="22">
+        <v>0.81538500000000003</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15.6">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="67">
+      <c r="B20" s="42">
         <v>0.75</v>
       </c>
-      <c r="C20" s="62">
+      <c r="C20" s="37">
         <v>0.83333299999999999</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="38">
         <v>0.84523800000000004</v>
       </c>
       <c r="E20" s="18">
@@ -19914,27 +19971,39 @@
       <c r="G20" s="22">
         <v>0.85714299999999999</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="47">
         <v>0.83333299999999999</v>
       </c>
-      <c r="I20" s="72">
+      <c r="I20" s="45">
         <v>0.83333299999999999</v>
       </c>
-      <c r="J20" s="75">
+      <c r="J20" s="48">
         <v>0.83333299999999999</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="38">
+        <v>0.97564700000000004</v>
+      </c>
+      <c r="O20" s="22">
+        <v>0.97869099999999998</v>
+      </c>
+      <c r="P20" s="22">
+        <v>0.97869099999999998</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15.6">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="67">
+      <c r="B21" s="42">
         <v>0.87982800000000005</v>
       </c>
-      <c r="C21" s="62">
+      <c r="C21" s="37">
         <v>0.90987099999999999</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="38">
         <v>0.91416299999999995</v>
       </c>
       <c r="E21" s="18">
@@ -19946,27 +20015,39 @@
       <c r="G21" s="22">
         <v>0.93562199999999995</v>
       </c>
-      <c r="H21" s="74">
+      <c r="H21" s="47">
         <v>0.93132999999999999</v>
       </c>
-      <c r="I21" s="72">
+      <c r="I21" s="45">
         <v>0.93562199999999995</v>
       </c>
-      <c r="J21" s="75">
+      <c r="J21" s="48">
         <v>0.93562199999999995</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="38">
+        <v>0.84523800000000004</v>
+      </c>
+      <c r="O21" s="22">
+        <v>0.85714299999999999</v>
+      </c>
+      <c r="P21" s="22">
+        <v>0.85714299999999999</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15.6">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="67">
+      <c r="B22" s="42">
         <v>0.45122000000000001</v>
       </c>
-      <c r="C22" s="62">
+      <c r="C22" s="37">
         <v>0.91869900000000004</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="38">
         <v>0.96748000000000001</v>
       </c>
       <c r="E22" s="18">
@@ -19978,27 +20059,39 @@
       <c r="G22" s="22">
         <v>0.96748000000000001</v>
       </c>
-      <c r="H22" s="74">
+      <c r="H22" s="47">
         <v>0.96341500000000002</v>
       </c>
-      <c r="I22" s="72">
+      <c r="I22" s="45">
         <v>0.96341500000000002</v>
       </c>
-      <c r="J22" s="75">
+      <c r="J22" s="48">
         <v>0.96341500000000002</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="38">
+        <v>0.91416299999999995</v>
+      </c>
+      <c r="O22" s="22">
+        <v>0.93562199999999995</v>
+      </c>
+      <c r="P22" s="22">
+        <v>0.93562199999999995</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="15.6">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="67">
+      <c r="B23" s="42">
         <v>0.35955100000000001</v>
       </c>
-      <c r="C23" s="62">
+      <c r="C23" s="37">
         <v>0.83707900000000002</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="38">
         <v>0.86516899999999997</v>
       </c>
       <c r="E23" s="18">
@@ -20010,27 +20103,39 @@
       <c r="G23" s="22">
         <v>0.87359600000000004</v>
       </c>
-      <c r="H23" s="74">
+      <c r="H23" s="47">
         <v>0.84550599999999998</v>
       </c>
-      <c r="I23" s="72">
+      <c r="I23" s="45">
         <v>0.84831500000000004</v>
       </c>
-      <c r="J23" s="75">
+      <c r="J23" s="48">
         <v>0.84831500000000004</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="38">
+        <v>0.96748000000000001</v>
+      </c>
+      <c r="O23" s="22">
+        <v>0.96748000000000001</v>
+      </c>
+      <c r="P23" s="22">
+        <v>0.96748000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15.6">
       <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="67">
+      <c r="B24" s="42">
         <v>0.87058800000000003</v>
       </c>
-      <c r="C24" s="62">
+      <c r="C24" s="37">
         <v>0.89882399999999996</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="38">
         <v>0.90823500000000001</v>
       </c>
       <c r="E24" s="18">
@@ -20042,27 +20147,39 @@
       <c r="G24" s="22">
         <v>0.92</v>
       </c>
-      <c r="H24" s="74">
+      <c r="H24" s="47">
         <v>0.87529400000000002</v>
       </c>
-      <c r="I24" s="72">
+      <c r="I24" s="45">
         <v>0.88941199999999998</v>
       </c>
-      <c r="J24" s="75">
+      <c r="J24" s="48">
         <v>0.87764699999999995</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="38">
+        <v>0.86516899999999997</v>
+      </c>
+      <c r="O24" s="22">
+        <v>0.87359600000000004</v>
+      </c>
+      <c r="P24" s="22">
+        <v>0.87359600000000004</v>
       </c>
     </row>
     <row r="25" spans="1:26" s="9" customFormat="1" ht="15.6">
       <c r="A25" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="68">
+      <c r="B25" s="43">
         <v>0.72212399999999999</v>
       </c>
-      <c r="C25" s="65">
+      <c r="C25" s="40">
         <v>0.73805299999999996</v>
       </c>
-      <c r="D25" s="66">
+      <c r="D25" s="41">
         <v>0.74159299999999995</v>
       </c>
       <c r="E25" s="19">
@@ -20074,21 +20191,29 @@
       <c r="G25" s="25">
         <v>0.75044200000000005</v>
       </c>
-      <c r="H25" s="76">
+      <c r="H25" s="49">
         <v>0.718584</v>
       </c>
-      <c r="I25" s="73">
+      <c r="I25" s="46">
         <v>0.73451299999999997</v>
       </c>
-      <c r="J25" s="77">
+      <c r="J25" s="50">
         <v>0.73451299999999997</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
+      <c r="M25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="38">
+        <v>0.90823500000000001</v>
+      </c>
+      <c r="O25" s="22">
+        <v>0.92</v>
+      </c>
+      <c r="P25" s="22">
+        <v>0.92</v>
+      </c>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
@@ -20100,12 +20225,27 @@
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
     </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
+      <c r="M26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="41">
+        <v>0.74159299999999995</v>
+      </c>
+      <c r="O26" s="25">
+        <v>0.75044200000000005</v>
+      </c>
+      <c r="P26" s="25">
+        <v>0.75044200000000005</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="M2:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20125,27 +20265,27 @@
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="87"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="88"/>
     </row>
     <row r="2" spans="1:26" ht="16.8">
-      <c r="A2" s="34"/>
+      <c r="A2" s="85"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -20957,8 +21097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59496A8-C40C-4DF5-91B2-FE22C15B9CFE}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AC85" sqref="AC85"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3"/>
@@ -20967,17 +21107,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
     </row>
     <row r="2" spans="1:4" ht="16.8">
-      <c r="A2" s="34"/>
+      <c r="A2" s="85"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -21311,17 +21451,17 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="19.2">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="88"/>
     </row>
     <row r="34" spans="1:4" ht="16.8">
-      <c r="A34" s="34"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
@@ -21339,10 +21479,10 @@
       <c r="B35" s="21">
         <v>0.78748099999999999</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="62">
         <v>0.84087000000000001</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="62">
         <v>0.83404400000000001</v>
       </c>
     </row>
@@ -21356,7 +21496,7 @@
       <c r="C36" s="21">
         <v>0.67810499999999996</v>
       </c>
-      <c r="D36" s="87">
+      <c r="D36" s="58">
         <v>0.73362400000000005</v>
       </c>
     </row>
@@ -21370,7 +21510,7 @@
       <c r="C37" s="21">
         <v>0.77141999999999999</v>
       </c>
-      <c r="D37" s="87">
+      <c r="D37" s="58">
         <v>0.82610799999999995</v>
       </c>
     </row>
@@ -21655,17 +21795,17 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="19.2">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="37"/>
+      <c r="C63" s="87"/>
+      <c r="D63" s="88"/>
     </row>
     <row r="64" spans="1:4" ht="16.8">
-      <c r="A64" s="34"/>
+      <c r="A64" s="85"/>
       <c r="B64" s="1" t="s">
         <v>4</v>
       </c>
@@ -21677,7 +21817,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.6">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="63" t="s">
         <v>7</v>
       </c>
       <c r="B65" s="21">
@@ -21686,7 +21826,7 @@
       <c r="C65" s="21">
         <v>0.80577699999999997</v>
       </c>
-      <c r="D65" s="88">
+      <c r="D65" s="59">
         <v>0.78486299999999998</v>
       </c>
     </row>
@@ -21826,7 +21966,7 @@
       <c r="C75" s="21">
         <v>0.56349700000000003</v>
       </c>
-      <c r="D75" s="88">
+      <c r="D75" s="59">
         <v>0.55408800000000002</v>
       </c>
     </row>
@@ -21840,7 +21980,7 @@
       <c r="C76" s="24">
         <v>0.82527200000000001</v>
       </c>
-      <c r="D76" s="89">
+      <c r="D76" s="60">
         <v>0.81157299999999999</v>
       </c>
     </row>
@@ -21868,7 +22008,7 @@
       <c r="C78" s="21">
         <v>0.82197399999999998</v>
       </c>
-      <c r="D78" s="88">
+      <c r="D78" s="59">
         <v>0.81407499999999999</v>
       </c>
     </row>
@@ -21980,7 +22120,7 @@
       <c r="C86" s="21">
         <v>0.90181699999999998</v>
       </c>
-      <c r="D86" s="88">
+      <c r="D86" s="59">
         <v>0.89265300000000003</v>
       </c>
     </row>
@@ -22008,7 +22148,8 @@
     <mergeCell ref="B63:D63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -22026,27 +22167,27 @@
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="87"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="88"/>
     </row>
     <row r="2" spans="1:26" ht="16.8">
-      <c r="A2" s="34"/>
+      <c r="A2" s="85"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -22858,24 +22999,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4CACD9-9029-4A8D-8768-3FC99464017E}">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:D82"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y61" sqref="Y61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3"/>
   <sheetData>
     <row r="1" spans="1:4" ht="19.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
     </row>
     <row r="2" spans="1:4" ht="16.8">
-      <c r="A2" s="34"/>
+      <c r="A2" s="85"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -23209,17 +23350,17 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="19.2">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88"/>
     </row>
     <row r="30" spans="1:4" ht="16.8">
-      <c r="A30" s="34"/>
+      <c r="A30" s="85"/>
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
@@ -23553,17 +23694,17 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="19.2">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="36"/>
-      <c r="D58" s="37"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="88"/>
     </row>
     <row r="59" spans="1:4" ht="16.8">
-      <c r="A59" s="34"/>
+      <c r="A59" s="85"/>
       <c r="B59" s="1" t="s">
         <v>4</v>
       </c>
@@ -23930,27 +24071,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="87"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="88"/>
     </row>
     <row r="2" spans="1:26" ht="16.8">
-      <c r="A2" s="39"/>
+      <c r="A2" s="90"/>
       <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
@@ -24762,24 +24903,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467B240A-1763-4A5C-B1BF-96476DECBE93}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V78" sqref="V78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3"/>
   <sheetData>
     <row r="1" spans="1:4" ht="19.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
     </row>
     <row r="2" spans="1:4" ht="16.8">
-      <c r="A2" s="39"/>
+      <c r="A2" s="90"/>
       <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
@@ -25113,17 +25254,17 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="19.2">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88"/>
     </row>
     <row r="30" spans="1:4" ht="16.8">
-      <c r="A30" s="39"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="11" t="s">
         <v>4</v>
       </c>
@@ -25457,17 +25598,17 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="19.2">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="37"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="88"/>
     </row>
     <row r="58" spans="1:4" ht="16.8">
-      <c r="A58" s="39"/>
+      <c r="A58" s="90"/>
       <c r="B58" s="11" t="s">
         <v>4</v>
       </c>
